--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_6.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_6.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2041.464274420427</v>
+        <v>-2041.46427442038</v>
       </c>
     </row>
     <row r="7">
@@ -26332,10 +26334,10 @@
         <v>32252.22165943391</v>
       </c>
       <c r="I2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="J2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="K2" t="n">
         <v>32252.22165943391</v>
@@ -26344,7 +26346,7 @@
         <v>32252.22165943391</v>
       </c>
       <c r="M2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="N2" t="n">
         <v>32252.22165943391</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_6.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_4_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2041.46427442038</v>
+        <v>-128802.4181436854</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="C2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="D2" t="n">
         <v>32252.22165943391</v>
@@ -26334,10 +26334,10 @@
         <v>32252.22165943391</v>
       </c>
       <c r="I2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="J2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="K2" t="n">
         <v>32252.22165943391</v>
@@ -26346,7 +26346,7 @@
         <v>32252.22165943391</v>
       </c>
       <c r="M2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="N2" t="n">
         <v>32252.22165943391</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22876.85944685537</v>
+        <v>-38027.53341689013</v>
       </c>
       <c r="C6" t="n">
-        <v>-22876.85944685537</v>
+        <v>-38027.53341689012</v>
       </c>
       <c r="D6" t="n">
-        <v>-22876.85944685537</v>
+        <v>-38027.53341689013</v>
       </c>
       <c r="E6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="F6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="G6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="H6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="I6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890137</v>
       </c>
       <c r="J6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="K6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="L6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="M6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890137</v>
       </c>
       <c r="N6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="O6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
       <c r="P6" t="n">
-        <v>10750.74055314463</v>
+        <v>-4399.933416890133</v>
       </c>
     </row>
   </sheetData>
